--- a/firmware/寄存器表.xlsx
+++ b/firmware/寄存器表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\simple-stepper-motor\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C8496-9A55-4A42-A5CB-6ABAEDAAF7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AEFD96-D413-43EF-BEED-113E5E3B19E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>地址偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>Set Node-ID and save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse direction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,9 +309,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,6 +319,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,510 +625,535 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>24</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>27</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>28</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>31</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>33</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>34</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>35</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>36</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>38</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>125</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>126</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>127</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -1133,23 +1166,6 @@
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
